--- a/Glossary Files/DataVaultGlossaryv3.xlsx
+++ b/Glossary Files/DataVaultGlossaryv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Data Modeler\Formatting Files\Glossary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A198CE49-1884-4EF6-84D0-D6FE23B2DAB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E2967-1C0C-4AE3-A19B-370959306289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16305" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T  Data Modeler Formatting File" sheetId="1" r:id="rId1"/>
@@ -1794,7 +1794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="221">
   <si>
     <t>Glossary</t>
   </si>
@@ -2364,6 +2364,99 @@
   </si>
   <si>
     <t>Schedule</t>
+  </si>
+  <si>
+    <t>SESSN_ENRL_CNTL</t>
+  </si>
+  <si>
+    <t>SESSN_APPT_CNTL</t>
+  </si>
+  <si>
+    <t>FACILITY_ASSIGNMNT</t>
+  </si>
+  <si>
+    <t>SSR_ENR_APT_APPROV</t>
+  </si>
+  <si>
+    <t>SSR_VAL_APT_APPROV</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>WeeksOfInstruction</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>DegreeConfer</t>
+  </si>
+  <si>
+    <t>FullyEnrolled</t>
+  </si>
+  <si>
+    <t>FullyGraded</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>WithdrawWithoutPenalty</t>
+  </si>
+  <si>
+    <t>LST_WD_W_PEN_DT</t>
+  </si>
+  <si>
+    <t>WD_W_PEN_GRD_BAS</t>
+  </si>
+  <si>
+    <t>WD_W_PEN_GRADE</t>
+  </si>
+  <si>
+    <t>ENRL_ON_TRANS_DT</t>
+  </si>
+  <si>
+    <t>STATS_ON_TRANS_DT</t>
+  </si>
+  <si>
+    <t>STDNT_ATTR_VALUE</t>
+  </si>
+  <si>
+    <t>GRAD_APPLY_ST_DT</t>
+  </si>
+  <si>
+    <t>GRAD_APPLY_END_DT</t>
+  </si>
+  <si>
+    <t>SSR_GR_EDIT_END_DT</t>
+  </si>
+  <si>
+    <t>GRAD_INSTRUCTIONS</t>
   </si>
 </sst>
 </file>
@@ -2446,14 +2539,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2768,12 +2861,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I152"/>
+  <dimension ref="A2:I205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H131" sqref="H131"/>
+      <selection pane="bottomLeft" activeCell="I201" sqref="I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,17 +2878,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -6746,7 +6839,7 @@
       <c r="H140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I140" s="6" t="s">
+      <c r="I140" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6775,7 +6868,7 @@
       <c r="H141" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I141" s="6" t="s">
+      <c r="I141" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6804,7 +6897,7 @@
       <c r="H142" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I142" s="6" t="s">
+      <c r="I142" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6833,7 +6926,7 @@
       <c r="H143" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I143" s="6" t="s">
+      <c r="I143" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6862,7 +6955,7 @@
       <c r="H144" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I144" s="6" t="s">
+      <c r="I144" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6891,7 +6984,7 @@
       <c r="H145" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I145" s="6" t="s">
+      <c r="I145" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6920,7 +7013,7 @@
       <c r="H146" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I146" s="6" t="s">
+      <c r="I146" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6949,7 +7042,7 @@
       <c r="H147" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I147" s="6" t="s">
+      <c r="I147" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6978,7 +7071,7 @@
       <c r="H148" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I148" s="6" t="s">
+      <c r="I148" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7007,7 +7100,7 @@
       <c r="H149" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I149" s="6" t="s">
+      <c r="I149" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7036,7 +7129,7 @@
       <c r="H150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="I150" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7065,7 +7158,7 @@
       <c r="H151" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I151" s="6" t="s">
+      <c r="I151" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7094,8 +7187,1489 @@
       <c r="H152" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I152" s="6" t="s">
-        <v>22</v>
+      <c r="I152" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="4"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="4"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I170" s="4"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172" s="4"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" s="4">
+        <f>COUNTIF($A$5:$A$999,A184)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" s="4">
+        <f t="shared" ref="I185:I205" si="0">COUNTIF($A$5:$A$999,A185)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I188" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I189" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I197" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I201" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I202" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I203" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7103,7 +8677,7 @@
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" error="Entered value is not in valid list of values! _x000a_Choose item from drop down list." sqref="E5:H152" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" error="Entered value is not in valid list of values! _x000a_Choose item from drop down list." sqref="E5:H205" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
